--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints1.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints1.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>6.375834228165686e-21</v>
+        <v>6.403463937946188e-21</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>6.342270155874716e-21</v>
+        <v>6.37255667510352e-21</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>6.301151921082819e-21</v>
+        <v>6.332334685294571e-21</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>6.253124205367553e-21</v>
+        <v>6.283636386533258e-21</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>6.198831690306312e-21</v>
+        <v>6.227300196833346e-21</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>6.138919057476541e-21</v>
+        <v>6.164164534208644e-21</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>6.074030988455602e-21</v>
+        <v>6.095067816672873e-21</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>6.004812164821112e-21</v>
+        <v>6.020848462240027e-21</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>5.931907268150431e-21</v>
+        <v>5.942344888923826e-21</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>5.855960980020909e-21</v>
+        <v>5.860395514737977e-21</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>5.777617982010187e-21</v>
+        <v>5.775838757696507e-21</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>5.697522955695618e-21</v>
+        <v>5.68951303581312e-21</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>5.616320582654539e-21</v>
+        <v>5.602256767101514e-21</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>5.53465554446461e-21</v>
+        <v>5.514908369575731e-21</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>5.453172522703169e-21</v>
+        <v>5.428306261249466e-21</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>5.372516198947669e-21</v>
+        <v>5.343288860136536e-21</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>5.293331254775446e-21</v>
+        <v>5.260694584250641e-21</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>5.216262371764158e-21</v>
+        <v>5.181361851605813e-21</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>5.141938946300164e-21</v>
+        <v>5.106104290577043e-21</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>5.070682993562946e-21</v>
+        <v>5.035237016365826e-21</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>5.00253185515478e-21</v>
+        <v>4.968613458406072e-21</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>4.937512137399497e-21</v>
+        <v>4.906069635575831e-21</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>4.875650446621019e-21</v>
+        <v>4.847441566753246e-21</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>4.816973389143196e-21</v>
+        <v>4.79256527081639e-21</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>4.761507571290106e-21</v>
+        <v>4.74127676664355e-21</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>4.709279599385594e-21</v>
+        <v>4.693412073112795e-21</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>4.66031607975352e-21</v>
+        <v>4.648807209102213e-21</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>4.61464361871794e-21</v>
+        <v>4.607298193490064e-21</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>4.572288822602709e-21</v>
+        <v>4.568721045154429e-21</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>4.533278297731752e-21</v>
+        <v>4.532911782973455e-21</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>4.497638650428948e-21</v>
+        <v>4.49970642582524e-21</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>4.465396487018314e-21</v>
+        <v>4.468940992588015e-21</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>4.436578413823726e-21</v>
+        <v>4.440451502139879e-21</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>4.411211037169077e-21</v>
+        <v>4.414073973358942e-21</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>4.389244806465293e-21</v>
+        <v>4.389610986744332e-21</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>4.370120472747725e-21</v>
+        <v>4.366641328436665e-21</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>4.353069595881352e-21</v>
+        <v>4.344651934560923e-21</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>4.337323097921618e-21</v>
+        <v>4.323129461197741e-21</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>4.322111900923899e-21</v>
+        <v>4.301560564427666e-21</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>4.306666926943592e-21</v>
+        <v>4.279431900331281e-21</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>4.290219098036073e-21</v>
+        <v>4.256230124989131e-21</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>4.271999336256785e-21</v>
+        <v>4.231441894481856e-21</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>4.2512385636611e-21</v>
+        <v>4.204553864890002e-21</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>4.227167702304389e-21</v>
+        <v>4.175052692294112e-21</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>4.19901767424211e-21</v>
+        <v>4.142425032774838e-21</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>4.166019401529631e-21</v>
+        <v>4.106157542412724e-21</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>4.127403806222353e-21</v>
+        <v>4.065736877288349e-21</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>4.082401810375608e-21</v>
+        <v>4.020649693482226e-21</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>4.030244336044915e-21</v>
+        <v>3.970382647075056e-21</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>3.970231850093444e-21</v>
+        <v>3.914464957535202e-21</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>3.902558886191993e-21</v>
+        <v>3.852973038485128e-21</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>3.828040232614685e-21</v>
+        <v>3.786362916894044e-21</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>3.747503154401186e-21</v>
+        <v>3.715098255864212e-21</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>3.661774916591132e-21</v>
+        <v>3.639642718497871e-21</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>3.571682784224501e-21</v>
+        <v>3.560459967897559e-21</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>3.478054022340933e-21</v>
+        <v>3.47801366716552e-21</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>3.381715895980183e-21</v>
+        <v>3.39276747940409e-21</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>3.28349567018187e-21</v>
+        <v>3.305185067715495e-21</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>3.184220609986004e-21</v>
+        <v>3.215730095202304e-21</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>3.084717980432211e-21</v>
+        <v>3.124866224966743e-21</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>2.985815046560111e-21</v>
+        <v>3.033057120111031e-21</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>2.888323379929015e-21</v>
+        <v>2.940760739858743e-21</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>2.79266859419535e-21</v>
+        <v>2.848294764981244e-21</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>2.698875918406856e-21</v>
+        <v>2.755831354335049e-21</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>2.606952001571054e-21</v>
+        <v>2.663535913762182e-21</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>2.516903492695819e-21</v>
+        <v>2.571573849105031e-21</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>2.428737040788666e-21</v>
+        <v>2.480110566205622e-21</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>2.342459294857121e-21</v>
+        <v>2.38931147090598e-21</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>2.258076903909046e-21</v>
+        <v>2.299341969048489e-21</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>2.175596516951964e-21</v>
+        <v>2.210367466475176e-21</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>2.095024782993408e-21</v>
+        <v>2.122553369028072e-21</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>2.016368351041226e-21</v>
+        <v>2.036065082549555e-21</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.939633870102946e-21</v>
+        <v>1.951068012881653e-21</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.864827989186207e-21</v>
+        <v>1.867727565866511e-21</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.791957357298549e-21</v>
+        <v>1.786209147346168e-21</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.721028623447803e-21</v>
+        <v>1.706678163162988e-21</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.652048436641505e-21</v>
+        <v>1.629300019159005e-21</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.585023445887209e-21</v>
+        <v>1.554240121176269e-21</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.519960300192726e-21</v>
+        <v>1.481663875057122e-21</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.456865648565603e-21</v>
+        <v>1.41173668664361e-21</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.395746140013477e-21</v>
+        <v>1.344623961777879e-21</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.336608423543909e-21</v>
+        <v>1.280491106301993e-21</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.279459148164691e-21</v>
+        <v>1.219503526058265e-21</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.22430496288338e-21</v>
+        <v>1.161826626888755e-21</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.171152516707545e-21</v>
+        <v>1.107625814635539e-21</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.120008458644963e-21</v>
+        <v>1.057066495140907e-21</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.070879437703198e-21</v>
+        <v>1.01031407424693e-21</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.023826330995283e-21</v>
+        <v>9.675113272783243e-22</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>9.791919010670538e-22</v>
+        <v>9.286833928996702e-22</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>9.374102158146397e-22</v>
+        <v>8.938173061520861e-22</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>8.989153899782665e-22</v>
+        <v>8.629000825274422e-22</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>8.641415382981778e-22</v>
+        <v>8.359187375176297e-22</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>8.335227755147521e-22</v>
+        <v>8.128602866146437e-22</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>8.074932163682279e-22</v>
+        <v>7.937117453103702e-22</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>7.864869755988677e-22</v>
+        <v>7.784601290967157e-22</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>7.709381679470139e-22</v>
+        <v>7.670924534656443e-22</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>7.612809081529223e-22</v>
+        <v>7.595957339090579e-22</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>7.579493109568792e-22</v>
+        <v>7.559569859188798e-22</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>7.613774910991807e-22</v>
+        <v>7.561632249870377e-22</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>7.719995633201049e-22</v>
+        <v>7.602014666054545e-22</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>4.743724642544968e-22</v>
+        <v>4.698386317684238e-22</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>6.308166521287008e-22</v>
+        <v>6.296126523929486e-22</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>6.013203149878993e-22</v>
+        <v>5.946293668449744e-22</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>5.898421776583335e-22</v>
+        <v>5.872236595617788e-22</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>5.839674462215544e-22</v>
+        <v>5.872293718745563e-22</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>5.76160364301296e-22</v>
+        <v>5.799616902216936e-22</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>6.184027209813064e-22</v>
+        <v>6.176006701430182e-22</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>8.024360341958376e-22</v>
+        <v>7.969957381314093e-22</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>1.091058422230453e-21</v>
+        <v>1.086685982181515e-21</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.200845246022782e-21</v>
+        <v>1.205145523569365e-21</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.243298204164675e-21</v>
+        <v>1.25255597050151e-21</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.281366669113641e-21</v>
+        <v>1.284950580309671e-21</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.245057192381531e-21</v>
+        <v>1.234704068548843e-21</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.156590298984761e-21</v>
+        <v>1.144689873623888e-21</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.087671177202836e-21</v>
+        <v>1.107022394161532e-21</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.052801944197876e-21</v>
+        <v>1.093453892739136e-21</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.045597757961599e-21</v>
+        <v>1.065053862213811e-21</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.059044838873408e-21</v>
+        <v>1.070044477765733e-21</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.029144978659786e-21</v>
+        <v>1.032279112421803e-21</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>9.761759177835423e-22</v>
+        <v>9.68920870808218e-22</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>9.379300601725006e-22</v>
+        <v>9.365372453630004e-22</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>8.939697273046472e-22</v>
+        <v>8.952533733694062e-22</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>8.504552056741184e-22</v>
+        <v>8.526023653257736e-22</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>8.149465776156145e-22</v>
+        <v>8.198738808876626e-22</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>7.849430969846437e-22</v>
+        <v>7.928258704296058e-22</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>7.56854101462396e-22</v>
+        <v>7.65533693156347e-22</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>7.271874428374916e-22</v>
+        <v>7.325214519742928e-22</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>6.934561364636741e-22</v>
+        <v>6.92891891680103e-22</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>6.537608379657124e-22</v>
+        <v>6.484245297415533e-22</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>6.062859076345803e-22</v>
+        <v>6.009257233906996e-22</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>5.521821219646367e-22</v>
+        <v>5.519365772823955e-22</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>4.964535605632588e-22</v>
+        <v>5.026536393702325e-22</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>4.443618080214906e-22</v>
+        <v>4.542504318906867e-22</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>4.005644415996555e-22</v>
+        <v>4.081708618646017e-22</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>3.657356815895304e-22</v>
+        <v>3.676419920141365e-22</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>3.389342909900604e-22</v>
+        <v>3.365963432106677e-22</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>3.188735582532713e-22</v>
+        <v>3.16425430452617e-22</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>3.035632344526244e-22</v>
+        <v>3.032725574088239e-22</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>2.909726128009446e-22</v>
+        <v>2.927469819164426e-22</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.799902626296577e-22</v>
+        <v>2.827219636971677e-22</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.703478415654951e-22</v>
+        <v>2.7314712826838e-22</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.61808210448803e-22</v>
+        <v>2.640489487158839e-22</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.541342301199391e-22</v>
+        <v>2.554538981254954e-22</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>2.470887614192494e-22</v>
+        <v>2.473884495830188e-22</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>2.404436012921375e-22</v>
+        <v>2.398761689533138e-22</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>2.340933079126991e-22</v>
+        <v>2.329006836701736e-22</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>2.280216367442395e-22</v>
+        <v>2.264166022350894e-22</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>2.222143511693912e-22</v>
+        <v>2.203778799046318e-22</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>2.166572145707867e-22</v>
+        <v>2.147384719353719e-22</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>2.113359903310663e-22</v>
+        <v>2.094523335838884e-22</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>2.062364418328627e-22</v>
+        <v>2.044734201067526e-22</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.013443324588111e-22</v>
+        <v>1.99755686760538e-22</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.966454255915444e-22</v>
+        <v>1.952530888018164e-22</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.921268541422831e-22</v>
+        <v>1.909252382329381e-22</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.877825356674715e-22</v>
+        <v>1.867597705774517e-22</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.836084848638826e-22</v>
+        <v>1.827529834561075e-22</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.796007170422461e-22</v>
+        <v>1.789011770255437e-22</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.757552475132858e-22</v>
+        <v>1.752006514423934e-22</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.720680915877276e-22</v>
+        <v>1.716477068632912e-22</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.685352645762956e-22</v>
+        <v>1.682386434448708e-22</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.651527817897189e-22</v>
+        <v>1.649697613437697e-22</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.619166585387216e-22</v>
+        <v>1.618373607166213e-22</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.588229101340283e-22</v>
+        <v>1.58837741720059e-22</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.558675518863674e-22</v>
+        <v>1.559672045107203e-22</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.530465991064634e-22</v>
+        <v>1.532220492452388e-22</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.503560671050421e-22</v>
+        <v>1.505985760802491e-22</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.477919711928281e-22</v>
+        <v>1.480930851723849e-22</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.453503266805496e-22</v>
+        <v>1.457018766782833e-22</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.430271488789312e-22</v>
+        <v>1.434212507545781e-22</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.408184530986978e-22</v>
+        <v>1.412475075579029e-22</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.387202546505771e-22</v>
+        <v>1.391769472448946e-22</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.367285688452939e-22</v>
+        <v>1.37205869972187e-22</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.348394109935741e-22</v>
+        <v>1.353305758964148e-22</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>1.330487964061426e-22</v>
+        <v>1.335473651742121e-22</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>1.313527403937269e-22</v>
+        <v>1.318525379622153e-22</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.29747258267052e-22</v>
+        <v>1.302423944170584e-22</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.28228365336843e-22</v>
+        <v>1.287132346953754e-22</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>1.26792076913827e-22</v>
+        <v>1.272613589538026e-22</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>1.254344083087292e-22</v>
+        <v>1.258830673489741e-22</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>1.241513748322754e-22</v>
+        <v>1.245746600375246e-22</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.229389917951908e-22</v>
+        <v>1.233324371760885e-22</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.217932745082024e-22</v>
+        <v>1.221526989213016e-22</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.207102382820354e-22</v>
+        <v>1.210317454297982e-22</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.196858984274156e-22</v>
+        <v>1.19965876858213e-22</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.187162702550685e-22</v>
+        <v>1.189513933631805e-22</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.177973690757206e-22</v>
+        <v>1.179845951013362e-22</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.169252102000974e-22</v>
+        <v>1.170617822293147e-22</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.160958089532273e-22</v>
+        <v>1.16179254935769e-22</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.153052317657931e-22</v>
+        <v>1.153334278135807e-22</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.145497109592191e-22</v>
+        <v>1.145210868157679e-22</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.138255124559632e-22</v>
+        <v>1.137390931140381e-22</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.131289021784841e-22</v>
+        <v>1.129843078800998e-22</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.124561460492395e-22</v>
+        <v>1.122535922856608e-22</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.118035099906875e-22</v>
+        <v>1.115438075024289e-22</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.11167259925286e-22</v>
+        <v>1.108518147021116e-22</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.105436617754935e-22</v>
+        <v>1.101744750564176e-22</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.099289814637679e-22</v>
+        <v>1.095086497370544e-22</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.093194849125672e-22</v>
+        <v>1.088511999157299e-22</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.087114380443493e-22</v>
+        <v>1.081989867641518e-22</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>1.081011067815727e-22</v>
+        <v>1.075488714540285e-22</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.074847570466953e-22</v>
+        <v>1.068977151570677e-22</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.068586547621749e-22</v>
+        <v>1.06242379044977e-22</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.062190658504702e-22</v>
+        <v>1.055797242894649e-22</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.055622562340389e-22</v>
+        <v>1.04906612062239e-22</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.04884491835339e-22</v>
+        <v>1.042199035350073e-22</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.041820385768284e-22</v>
+        <v>1.035164598794773e-22</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.034511623809658e-22</v>
+        <v>1.027931422673575e-22</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.02688129170209e-22</v>
+        <v>1.020468118703557e-22</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.018892048670156e-22</v>
+        <v>1.012743298601792e-22</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.010506553938445e-22</v>
+        <v>1.004725574085368e-22</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.001687466731533e-22</v>
+        <v>9.963835568713604e-23</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>9.923974462740023e-23</v>
+        <v>9.876858586768474e-23</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>9.825991517904286e-23</v>
+        <v>9.78601091218905e-23</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>9.722552425054014e-23</v>
+        <v>9.690978662146199e-23</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>9.613356145711565e-23</v>
+        <v>9.591484196218547e-23</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>9.498488300963899e-23</v>
+        <v>9.487443512422264e-23</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>9.378163117294429e-23</v>
+        <v>9.378837014132496e-23</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>9.252594907794728e-23</v>
+        <v>9.265645148097537e-23</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>9.121997985556408e-23</v>
+        <v>9.147848361065722e-23</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>8.986586663671024e-23</v>
+        <v>9.025427099785332e-23</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>8.846575255230317e-23</v>
+        <v>8.898361811004822e-23</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>8.70217807332584e-23</v>
+        <v>8.766632941472466e-23</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>8.553609431049143e-23</v>
+        <v>8.630220937936544e-23</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>8.401083641491975e-23</v>
+        <v>8.489106247145513e-23</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>8.244815017745887e-23</v>
+        <v>8.343269315847658e-23</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>8.085017872902498e-23</v>
+        <v>8.192690590791309e-23</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>7.921906520053349e-23</v>
+        <v>8.037350518724738e-23</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>7.755695272290199e-23</v>
+        <v>7.877229546396415e-23</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>7.586598442704598e-23</v>
+        <v>7.712308120554616e-23</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>7.414830344388081e-23</v>
+        <v>7.542566687947599e-23</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>7.24060529043242e-23</v>
+        <v>7.367985695323852e-23</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>7.064123142499819e-23</v>
+        <v>7.188570535931306e-23</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>6.885430250514839e-23</v>
+        <v>7.004591599678493e-23</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>6.704480395634775e-23</v>
+        <v>6.816479071513226e-23</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>6.521226082509813e-23</v>
+        <v>6.624665339929651e-23</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>6.33561981578989e-23</v>
+        <v>6.429582793421665e-23</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>6.147614100125024e-23</v>
+        <v>6.231663820483246e-23</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>5.957161440165151e-23</v>
+        <v>6.031340809608279e-23</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>5.764214340560455e-23</v>
+        <v>5.829046149290922e-23</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>5.568725305960874e-23</v>
+        <v>5.625212228025063e-23</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>5.370646841016339e-23</v>
+        <v>5.42027143430459e-23</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>5.169931450377044e-23</v>
+        <v>5.214656156623664e-23</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>4.966531638692922e-23</v>
+        <v>5.008798783476172e-23</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>4.760399910613897e-23</v>
+        <v>4.803131703355997e-23</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>4.551650032807624e-23</v>
+        <v>4.598202200057091e-23</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>4.342371173643334e-23</v>
+        <v>4.395964983463424e-23</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>4.135976475209171e-23</v>
+        <v>4.19931806281585e-23</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>3.935903481283289e-23</v>
+        <v>4.011176832971057e-23</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>3.745589735644103e-23</v>
+        <v>3.834456688785986e-23</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>3.56847278206976e-23</v>
+        <v>3.672073025117324e-23</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>3.407990164338498e-23</v>
+        <v>3.526941236821842e-23</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>3.267579426228495e-23</v>
+        <v>3.40197671875626e-23</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>3.150678111518118e-23</v>
+        <v>3.300094865777464e-23</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>3.060723763985534e-23</v>
+        <v>3.224211072742165e-23</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>3.001153927408962e-23</v>
+        <v>3.17724073450712e-23</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.975406145566693e-23</v>
+        <v>3.162099245929146e-23</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.986917962236933e-23</v>
+        <v>3.181702001864985e-23</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>3.038797511156937e-23</v>
+        <v>3.238656852759591e-23</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>3.12946655440196e-23</v>
+        <v>3.331196350077765e-23</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>3.253859451601246e-23</v>
+        <v>3.454297130161489e-23</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>3.406827529335248e-23</v>
+        <v>3.602858307884146e-23</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>3.583222114184472e-23</v>
+        <v>3.771778998119165e-23</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>3.777894532729181e-23</v>
+        <v>3.955958315739744e-23</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>3.985696111549874e-23</v>
+        <v>4.150295375619302e-23</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>4.201478177226971e-23</v>
+        <v>4.349689292631192e-23</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>4.420092056340995e-23</v>
+        <v>4.54903918164885e-23</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>4.636389075472169e-23</v>
+        <v>4.743244157545446e-23</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>4.845220561201015e-23</v>
+        <v>4.927203335194422e-23</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>5.041437840108038e-23</v>
+        <v>5.095815829469196e-23</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>5.219892238773482e-23</v>
+        <v>5.243980755242965e-23</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>5.375435083777865e-23</v>
+        <v>5.366597227389161e-23</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>5.503343404270904e-23</v>
+        <v>5.459587852307484e-23</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>5.604851223547279e-23</v>
+        <v>5.533197285334159e-23</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>5.685575920113574e-23</v>
+        <v>5.60820882366487e-23</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>5.751270329236024e-23</v>
+        <v>5.705646585389545e-23</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>5.825824974199827e-23</v>
+        <v>5.844603244459103e-23</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>5.980229673907752e-23</v>
+        <v>6.038706719200194e-23</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>6.231326311316111e-23</v>
+        <v>6.27631981111462e-23</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>6.494861784794303e-23</v>
+        <v>6.505969476491535e-23</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>6.688317149946478e-23</v>
+        <v>6.67844526502508e-23</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>6.792603757843691e-23</v>
+        <v>6.778602710987503e-23</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>6.811238472207918e-23</v>
+        <v>6.803437904511395e-23</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>6.747765878193451e-23</v>
+        <v>6.749961823849855e-23</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>6.606544136916821e-23</v>
+        <v>6.61620206396509e-23</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>6.407974097824253e-23</v>
+        <v>6.420232614713764e-23</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>6.187142990973538e-23</v>
+        <v>6.198479065089708e-23</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>5.979679697169347e-23</v>
+        <v>5.988043832342963e-23</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>5.821213097216636e-23</v>
+        <v>5.826029333723861e-23</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>5.747372071920062e-23</v>
+        <v>5.749537986482434e-23</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>5.793785502084382e-23</v>
+        <v>5.795672207868809e-23</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>5.996082268514478e-23</v>
+        <v>6.001534415133249e-23</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>6.389891252014946e-23</v>
+        <v>6.404227025525714e-23</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>6.987949024922431e-23</v>
+        <v>7.016698384951398e-23</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>7.537176978626504e-23</v>
+        <v>7.571430635825933e-23</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>7.698798390905666e-23</v>
+        <v>7.71013382689615e-23</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>7.556165739386138e-23</v>
+        <v>7.518174573445607e-23</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>7.321532498130422e-23</v>
+        <v>7.216671111569298e-23</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>7.108052096399703e-23</v>
+        <v>6.932765534150701e-23</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>6.902578864152073e-23</v>
+        <v>6.673825900117666e-23</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>6.683771897278855e-23</v>
+        <v>6.439448429574181e-23</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>6.430293089108033e-23</v>
+        <v>6.229229837041584e-23</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>6.135573707807878e-23</v>
+        <v>6.045377168212725e-23</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>5.842290147362197e-23</v>
+        <v>5.898801025182605e-23</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>5.603369937194769e-23</v>
+        <v>5.802223790075553e-23</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>5.471740606729357e-23</v>
+        <v>5.768367845015905e-23</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>5.494160916773374e-23</v>
+        <v>5.807131010559888e-23</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>5.634431610841767e-23</v>
+        <v>5.890426212387586e-23</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>5.796957779418666e-23</v>
+        <v>5.962970238781967e-23</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>5.884853746511454e-23</v>
+        <v>5.968888860659269e-23</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>5.822226844404027e-23</v>
+        <v>5.864693930168114e-23</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>5.623314265032014e-23</v>
+        <v>5.660074802576543e-23</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>5.326536359721785e-23</v>
+        <v>5.378989134899883e-23</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>4.970313775524333e-23</v>
+        <v>5.045394758633778e-23</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>4.59306713303855e-23</v>
+        <v>4.683249513443806e-23</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>4.230343479941913e-23</v>
+        <v>4.317398754450182e-23</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>3.906910147675683e-23</v>
+        <v>3.976017198867601e-23</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>3.645007206448076e-23</v>
+        <v>3.688060119498589e-23</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>3.466874726467472e-23</v>
+        <v>3.482482789145837e-23</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>3.393063703856153e-23</v>
+        <v>3.386276154224547e-23</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>3.417607496703124e-23</v>
+        <v>3.39559219644671e-23</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>3.513470529752589e-23</v>
+        <v>3.482080560968545e-23</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>3.653035999261098e-23</v>
+        <v>3.616714947192999e-23</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>3.808687101485003e-23</v>
+        <v>3.77046905452282e-23</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>3.952807032680843e-23</v>
+        <v>3.914316582360939e-23</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>4.057778989105102e-23</v>
+        <v>4.019231230110237e-23</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>4.095986167014265e-23</v>
+        <v>4.056186697173592e-23</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>4.039928922004512e-23</v>
+        <v>3.996280370381217e-23</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>3.877368193883938e-23</v>
+        <v>3.826720536519166e-23</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>3.626305117487391e-23</v>
+        <v>3.566640653124235e-23</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>3.308300731951727e-23</v>
+        <v>3.238932438967876e-23</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>2.944916076413467e-23</v>
+        <v>2.866487612821195e-23</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>2.557712190009232e-23</v>
+        <v>2.472197893455406e-23</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>2.168250111875468e-23</v>
+        <v>2.078954999641541e-23</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.798090881149153e-23</v>
+        <v>1.709650650151172e-23</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.468795536966728e-23</v>
+        <v>1.387176563755328e-23</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.201879936467644e-23</v>
+        <v>1.134374357872537e-23</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.009517001388599e-23</v>
+        <v>9.637254681851125e-24</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>8.831488836172995e-24</v>
+        <v>8.647234219818092e-24</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>8.114303941765572e-24</v>
+        <v>8.237709237343256e-24</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>7.830163440891782e-24</v>
+        <v>8.272706779143694e-24</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>7.865615443779958e-24</v>
+        <v>8.616253889936309e-24</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>8.107208060657988e-24</v>
+        <v>9.132377614438005e-24</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>8.441489401754149e-24</v>
+        <v>9.685104997366006e-24</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>8.755007577296209e-24</v>
+        <v>1.013846308343675e-23</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>8.940510918661555e-24</v>
+        <v>1.036420624864896e-23</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>8.985047464349505e-24</v>
+        <v>1.035161452803037e-23</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>8.9490458410171e-24</v>
+        <v>1.018142213230433e-23</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>8.89486839073225e-24</v>
+        <v>9.936773260358407e-24</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>8.884877455562811e-24</v>
+        <v>9.700812111079951e-24</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>8.981435377576707e-24</v>
+        <v>9.556682883356322e-24</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>9.246904498841731e-24</v>
+        <v>9.587529776075067e-24</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>9.743647161425754e-24</v>
+        <v>9.87649698812349e-24</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.053402570739663e-23</v>
+        <v>1.050672871838897e-23</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.165811508488924e-23</v>
+        <v>1.15338888088975e-23</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.306407559336371e-23</v>
+        <v>1.290031033927436e-23</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.467637629575594e-23</v>
+        <v>1.451911509435911e-23</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.641948623074849e-23</v>
+        <v>1.630342482908718e-23</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.821787443702479e-23</v>
+        <v>1.816636129839481e-23</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.999600995326575e-23</v>
+        <v>2.002104625721572e-23</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>2.167836181815479e-23</v>
+        <v>2.178060146048617e-23</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>2.318939907037512e-23</v>
+        <v>2.335814866314221e-23</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>2.44542364907085e-23</v>
+        <v>2.466748158106367e-23</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.551909927494096e-23</v>
+        <v>2.574842174982574e-23</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.669305628622472e-23</v>
+        <v>2.691430652375229e-23</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>2.83196260316278e-23</v>
+        <v>2.851432164817345e-23</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>3.074232701821962e-23</v>
+        <v>3.089765286842073e-23</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>3.430467775306913e-23</v>
+        <v>3.441348592982514e-23</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>3.935019674324791e-23</v>
+        <v>3.941100657772033e-23</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>4.622240249582051e-23</v>
+        <v>4.623940055743299e-23</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>5.526481351785778e-23</v>
+        <v>5.524785361429602e-23</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>6.681325984686193e-23</v>
+        <v>6.677781161660291e-23</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>8.077287446653115e-23</v>
+        <v>8.073714360595351e-23</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>9.639824054255031e-23</v>
+        <v>9.637881902988492e-23</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.128899241866361e-22</v>
+        <v>1.129014291073395e-22</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.294484915105069e-22</v>
+        <v>1.295035650572609e-22</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.452745086258583e-22</v>
+        <v>1.453838180985703e-22</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.595685416444088e-22</v>
+        <v>1.597407794502118e-22</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.71531156677874e-22</v>
+        <v>1.717730403311265e-22</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.803629198379537e-22</v>
+        <v>1.806791919602397e-22</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.854296269756323e-22</v>
+        <v>1.858230583641991e-22</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.869618201179663e-22</v>
+        <v>1.874332258046962e-22</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.854719881930865e-22</v>
+        <v>1.860202326804586e-22</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.814727752939036e-22</v>
+        <v>1.820947725578747e-22</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.754768255133269e-22</v>
+        <v>1.761675390033317e-22</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.679967829442652e-22</v>
+        <v>1.687492255832166e-22</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.595452916796238e-22</v>
+        <v>1.603505258639126e-22</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.506349958123198e-22</v>
+        <v>1.514821334118146e-22</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.417785319206255e-22</v>
+        <v>1.426547343239847e-22</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.333878151194178e-22</v>
+        <v>1.342789005636915e-22</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.255215379789768e-22</v>
+        <v>1.264141114085289e-22</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.181610055347923e-22</v>
+        <v>1.190429252321375e-22</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.112875228223583e-22</v>
+        <v>1.12147900408161e-22</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.048823948771657e-22</v>
+        <v>1.057115953102412e-22</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>9.892692673471412e-23</v>
+        <v>9.971656831202786e-23</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>9.340242343049437e-23</v>
+        <v>9.414537778716211e-23</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>8.829019000000029e-23</v>
+        <v>8.898058210928813e-23</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>8.357153147872365e-23</v>
+        <v>8.420473965204803e-23</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>7.922775290216253e-23</v>
+        <v>7.98004087890903e-23</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>7.524015930580846e-23</v>
+        <v>7.575014789405676e-23</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>7.159005572515374e-23</v>
+        <v>7.203651534059005e-23</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>6.825874719569547e-23</v>
+        <v>6.864206950233764e-23</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>6.522753875292572e-23</v>
+        <v>6.554936875294195e-23</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>6.247773543233716e-23</v>
+        <v>6.274097146604593e-23</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>5.999064226942605e-23</v>
+        <v>6.019943601529627e-23</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>5.77475642996849e-23</v>
+        <v>5.790732077433577e-23</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>5.573036310075982e-23</v>
+        <v>5.584758271988663e-23</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>5.392461808266402e-23</v>
+        <v>5.400584159090536e-23</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>5.2317431960101e-23</v>
+        <v>5.236880813793888e-23</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>5.089591204987381e-23</v>
+        <v>5.092319640761982e-23</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>4.96471656687864e-23</v>
+        <v>4.965572044658173e-23</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>4.855830013364223e-23</v>
+        <v>4.855309430145763e-23</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>4.761642276124617e-23</v>
+        <v>4.760203201888204e-23</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>4.680864086840163e-23</v>
+        <v>4.67892476454879e-23</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>4.612206177191223e-23</v>
+        <v>4.610145522790849e-23</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>4.554379278858253e-23</v>
+        <v>4.552536881277788e-23</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>4.506094123521608e-23</v>
+        <v>4.504770244672929e-23</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>4.466061442861666e-23</v>
+        <v>4.465517017639605e-23</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>4.432991968558852e-23</v>
+        <v>4.433448604841203e-23</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>4.40559643229354e-23</v>
+        <v>4.407236410941053e-23</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>4.382585565746111e-23</v>
+        <v>4.385551840602498e-23</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>4.362670100596986e-23</v>
+        <v>4.367066298488916e-23</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>4.344560768526521e-23</v>
+        <v>4.350451189263624e-23</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>4.326968301215123e-23</v>
+        <v>4.334377917589988e-23</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>4.308603430343203e-23</v>
+        <v>4.317517888131376e-23</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>4.288176887591114e-23</v>
+        <v>4.298542505551105e-23</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>4.264399404639291e-23</v>
+        <v>4.276123174512563e-23</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>4.235981713168079e-23</v>
+        <v>4.248931299679059e-23</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>4.201634544857885e-23</v>
+        <v>4.215638285713961e-23</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>4.160068631389146e-23</v>
+        <v>4.174915537280659e-23</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>4.109994704442174e-23</v>
+        <v>4.125434459042428e-23</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>4.050123495697395e-23</v>
+        <v>4.065866455662654e-23</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>3.979283360799535e-23</v>
+        <v>3.995004005678534e-23</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>3.89767407199293e-23</v>
+        <v>3.913051227859947e-23</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>3.806382107613067e-23</v>
+        <v>3.821124954147338e-23</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>3.706508810984776e-23</v>
+        <v>3.72035731746047e-23</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>3.599155525432614e-23</v>
+        <v>3.611880450718823e-23</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>3.485423594281402e-23</v>
+        <v>3.49682648684215e-23</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>3.366414360855991e-23</v>
+        <v>3.376327558750228e-23</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>3.2432291684809e-23</v>
+        <v>3.251515799362504e-23</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>3.116969360480973e-23</v>
+        <v>3.123523341598752e-23</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>2.988736280181064e-23</v>
+        <v>2.993482318378754e-23</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>2.859631270905677e-23</v>
+        <v>2.862524862621941e-23</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>2.730755675979782e-23</v>
+        <v>2.731783107248211e-23</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>2.603210838727882e-23</v>
+        <v>2.602389185176994e-23</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>2.478098102474831e-23</v>
+        <v>2.475475229328075e-23</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>2.356518810545475e-23</v>
+        <v>2.352173372621227e-23</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>2.23957430626433e-23</v>
+        <v>2.233615747975893e-23</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>2.128365932956248e-23</v>
+        <v>2.120934488311853e-23</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>2.023974095253733e-23</v>
+        <v>2.015240176005656e-23</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.926874214778955e-23</v>
+        <v>1.91702073217575e-23</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.836859023993824e-23</v>
+        <v>1.826061439876106e-23</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.753684704263819e-23</v>
+        <v>1.742109963002302e-23</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.677107436954193e-23</v>
+        <v>1.664913965449692e-23</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.606883403430488e-23</v>
+        <v>1.594221111113921e-23</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.542768785057984e-23</v>
+        <v>1.529779063890366e-23</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>1.484519763202149e-23</v>
+        <v>1.471335487674599e-23</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>1.431892519228433e-23</v>
+        <v>1.418638046362169e-23</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>1.384643234502146e-23</v>
+        <v>1.371434403848487e-23</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.342528090388742e-23</v>
+        <v>1.329472224029108e-23</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.305303268253655e-23</v>
+        <v>1.292499170799567e-23</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.272724949462225e-23</v>
+        <v>1.260262908055303e-23</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.244549315379889e-23</v>
+        <v>1.232511099691857e-23</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>1.220532547372073e-23</v>
+        <v>1.208991409604752e-23</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>1.200430826804138e-23</v>
+        <v>1.189451501689452e-23</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.18400033504151e-23</v>
+        <v>1.173639039841484e-23</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.170997253449605e-23</v>
+        <v>1.161301687956364e-23</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.161177763393804e-23</v>
+        <v>1.152187109929572e-23</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.154298046239528e-23</v>
+        <v>1.146042969656633e-23</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.15011428335217e-23</v>
+        <v>1.142616931033039e-23</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.148382656097142e-23</v>
+        <v>1.141656657954302e-23</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.148859345839846e-23</v>
+        <v>1.142909814315925e-23</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.151300533945687e-23</v>
+        <v>1.146124064013416e-23</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.15546240178007e-23</v>
+        <v>1.151047070942279e-23</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.161101130708394e-23</v>
+        <v>1.157426498998012e-23</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.167972902096073e-23</v>
+        <v>1.165010012076133e-23</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.175833897308507e-23</v>
+        <v>1.173545274072141e-23</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.184440297711092e-23</v>
+        <v>1.182779948881533e-23</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.193548284669249e-23</v>
+        <v>1.192461700399829e-23</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.202914039548372e-23</v>
+        <v>1.202338192522527e-23</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.212293743713859e-23</v>
+        <v>1.212157089145123e-23</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.22144357853113e-23</v>
+        <v>1.221666054163141e-23</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>1.230119725365575e-23</v>
+        <v>1.230612751472068e-23</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>1.238078365582611e-23</v>
+        <v>1.238744844967424e-23</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>1.245106606510222e-23</v>
+        <v>1.245841739232469e-23</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>1.251464037674803e-23</v>
+        <v>1.252167768297418e-23</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>1.257779012140478e-23</v>
+        <v>1.258365744575388e-23</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>1.264689664942625e-23</v>
+        <v>1.265088520150683e-23</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>1.272834131116623e-23</v>
+        <v>1.272988947107601e-23</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>1.282850545697873e-23</v>
+        <v>1.282719877530465e-23</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>1.295377043721756e-23</v>
+        <v>1.294934163503577e-23</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>1.31105176022364e-23</v>
+        <v>1.31028465711123e-23</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>1.330512830238941e-23</v>
+        <v>1.329424210437759e-23</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>1.35439838880301e-23</v>
+        <v>1.353005675567438e-23</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>1.383346570951273e-23</v>
+        <v>1.381681904584615e-23</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>1.417995511719099e-23</v>
+        <v>1.41610574957358e-23</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>1.458983346141835e-23</v>
+        <v>1.456930062618602e-23</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>1.506948209254939e-23</v>
+        <v>1.504807695804062e-23</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>1.562528236093764e-23</v>
+        <v>1.560391501214235e-23</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.626361561693636e-23</v>
+        <v>1.624334330933366e-23</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.699086321090055e-23</v>
+        <v>1.69728903704588e-23</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.781340649318354e-23</v>
+        <v>1.779908471636031e-23</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.873762681413831e-23</v>
+        <v>1.872845486788038e-23</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.97699055241204e-23</v>
+        <v>1.976752934586377e-23</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>2.091662397348286e-23</v>
+        <v>2.092283667115277e-23</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>2.218416351257839e-23</v>
+        <v>2.220090536458926e-23</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>2.35754387427456e-23</v>
+        <v>2.360475877677995e-23</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>2.505608252623181e-23</v>
+        <v>2.509972533387979e-23</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>2.656903510919474e-23</v>
+        <v>2.662818934865308e-23</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>2.805691519320344e-23</v>
+        <v>2.813221002566712e-23</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>2.946234147982172e-23</v>
+        <v>2.955384656948388e-23</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>3.072793267061846e-23</v>
+        <v>3.08351581846705e-23</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>3.179630746715871e-23</v>
+        <v>3.19182040757902e-23</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>3.261008457100814e-23</v>
+        <v>3.27450434474069e-23</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>3.311188268373465e-23</v>
+        <v>3.325773550408667e-23</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>3.324432050690369e-23</v>
+        <v>3.339833945039318e-23</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>3.295001674208206e-23</v>
+        <v>3.310891449089146e-23</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>3.217159009083562e-23</v>
+        <v>3.233151983014556e-23</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>3.085165925473075e-23</v>
+        <v>3.100821467272009e-23</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>2.895297581156496e-23</v>
+        <v>2.910132988766811e-23</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>2.657668048082383e-23</v>
+        <v>2.671253948691748e-23</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>2.38820905279913e-23</v>
+        <v>2.400209507498835e-23</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>2.10287245419678e-23</v>
+        <v>2.113045096766312e-23</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.817610111166108e-23</v>
+        <v>1.825806148073153e-23</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.548373882597884e-23</v>
+        <v>1.554538092998327e-23</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.311115627382152e-23</v>
+        <v>1.315286363120076e-23</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.121787204409705e-23</v>
+        <v>1.124096390017391e-23</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>9.963404725711653e-24</v>
+        <v>9.970136052690931e-24</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>9.470854271328572e-24</v>
+        <v>9.464240151630638e-24</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>9.697006717555311e-24</v>
+        <v>9.680020350701327e-24</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.055119904390998e-23</v>
+        <v>1.052654293934816e-23</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.194276464938284e-23</v>
+        <v>1.191287060922254e-23</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.378103693296023e-23</v>
+        <v>1.374806605197192e-23</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.597534929363419e-23</v>
+        <v>1.59411919592495e-23</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.843503513039191e-23</v>
+        <v>1.84013110227036e-23</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>2.106942784221963e-23</v>
+        <v>2.10374859339816e-23</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>2.378786082811083e-23</v>
+        <v>2.375877938473813e-23</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>2.649966748705186e-23</v>
+        <v>2.647425406662065e-23</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>2.911418121802911e-23</v>
+        <v>2.909297267127671e-23</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>3.1540735420036e-23</v>
+        <v>3.152399789036087e-23</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>3.36886634920588e-23</v>
+        <v>3.367639241552049e-23</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>3.546729883308476e-23</v>
+        <v>3.545921893840403e-23</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>3.67859748421058e-23</v>
+        <v>3.678154015066451e-23</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>3.755402491810882e-23</v>
+        <v>3.755241874394997e-23</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>3.768078246008267e-23</v>
+        <v>3.76809174099104e-23</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>3.709477125839735e-23</v>
+        <v>3.709533795105357e-23</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>3.58531688881305e-23</v>
+        <v>3.585296257352272e-23</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>3.406603586345299e-23</v>
+        <v>3.406409067875912e-23</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>3.184359527139199e-23</v>
+        <v>3.183918465379104e-23</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>2.929607019898177e-23</v>
+        <v>2.928870688565394e-23</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>2.65336837332481e-23</v>
+        <v>2.652311976137473e-23</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>2.366665896122367e-23</v>
+        <v>2.365288566798721e-23</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>2.080521896994147e-23</v>
+        <v>2.078846699252554e-23</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.805958684642676e-23</v>
+        <v>1.804032612201611e-23</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.553998567771259e-23</v>
+        <v>1.551892544349312e-23</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.335656427009635e-23</v>
+        <v>1.333465286618277e-23</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.15783278285394e-23</v>
+        <v>1.155664354093006e-23</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.016488587795383e-23</v>
+        <v>1.014434670362665e-23</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>9.057867316028672e-24</v>
+        <v>9.039183258995066e-24</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>8.198901040450129e-24</v>
+        <v>8.182574111755029e-24</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>7.529615948908012e-24</v>
+        <v>7.515940166629856e-24</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>6.991640939089315e-24</v>
+        <v>6.98070232834005e-24</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>6.526795061528502e-24</v>
+        <v>6.51847237630936e-24</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>6.095788428735717e-24</v>
+        <v>6.089824865942607e-24</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>5.693991264754211e-24</v>
+        <v>5.690126040445299e-24</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>5.320486718143101e-24</v>
+        <v>5.318469162494875e-24</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>4.974357937461408e-24</v>
+        <v>4.973947494768681e-24</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>4.654688071267227e-24</v>
+        <v>4.655654299943138e-24</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>4.360560268119607e-24</v>
+        <v>4.362682840695615e-24</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>4.091057676577494e-24</v>
+        <v>4.094126379703387e-24</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>3.845263445199125e-24</v>
+        <v>3.849078179643015e-24</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>3.622260722543472e-24</v>
+        <v>3.626631503191794e-24</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>3.421132657169428e-24</v>
+        <v>3.425879613026943e-24</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>3.240962397635351e-24</v>
+        <v>3.245915771825142e-24</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>3.08083309250015e-24</v>
+        <v>3.085833242263626e-24</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>2.939827890322665e-24</v>
+        <v>2.94472528701956e-24</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>2.817029939661362e-24</v>
+        <v>2.821685168769733e-24</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>2.711522389075183e-24</v>
+        <v>2.715806150191414e-24</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>2.622388387122659e-24</v>
+        <v>2.626181493961455e-24</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>2.548711082362611e-24</v>
+        <v>2.551904462757005e-24</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>2.489573623353808e-24</v>
+        <v>2.492068319255156e-24</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.444059158654863e-24</v>
+        <v>2.445766326132843e-24</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.411250836824554e-24</v>
+        <v>2.412091746067173e-24</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.390231806421616e-24</v>
+        <v>2.390137841735203e-24</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.38008521600473e-24</v>
+        <v>2.378997875813939e-24</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.379894214132643e-24</v>
+        <v>2.377765110980451e-24</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.388741949364059e-24</v>
+        <v>2.38553280991177e-24</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.405711570257717e-24</v>
+        <v>2.401394235284958e-24</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.429886225372305e-24</v>
+        <v>2.424442649777029e-24</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.460349063266592e-24</v>
+        <v>2.453771316065072e-24</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.496183232499274e-24</v>
+        <v>2.488473496826112e-24</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.536471881629035e-24</v>
+        <v>2.527642454737158e-24</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.580298159214668e-24</v>
+        <v>2.570371452475324e-24</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.626745213814857e-24</v>
+        <v>2.61575375271762e-24</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.674896193988279e-24</v>
+        <v>2.662882618141049e-24</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.723834248293741e-24</v>
+        <v>2.710851311422739e-24</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.77264252528992e-24</v>
+        <v>2.758753095239694e-24</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.820404173535493e-24</v>
+        <v>2.805681232268916e-24</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>2.866202341589266e-24</v>
+        <v>2.850728985187534e-24</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>2.909120178009879e-24</v>
+        <v>2.892989616672514e-24</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>2.948240831356129e-24</v>
+        <v>2.931556389400975e-24</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.982647450186696e-24</v>
+        <v>2.965522566049923e-24</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>3.011423442090535e-24</v>
+        <v>2.993981664646705e-24</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>3.03392318525571e-24</v>
+        <v>3.016294324253475e-24</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>3.050285044350704e-24</v>
+        <v>3.03259403264959e-24</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>3.060788346438013e-24</v>
+        <v>3.043153237415518e-24</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>3.065712418580162e-24</v>
+        <v>3.048244386131755e-24</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>3.065336587839648e-24</v>
+        <v>3.048139926378765e-24</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>3.059940181278981e-24</v>
+        <v>3.04311230573703e-24</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>3.049802525960659e-24</v>
+        <v>3.033433971787016e-24</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>3.035202948947189e-24</v>
+        <v>3.019377372109202e-24</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>3.016420777301097e-24</v>
+        <v>3.001214954284081e-24</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.993735338084856e-24</v>
+        <v>2.979219165892097e-24</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.967425958360985e-24</v>
+        <v>2.953662454513739e-24</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.937771965192019e-24</v>
+        <v>2.924817267729512e-24</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.90505268564041e-24</v>
+        <v>2.892956053119837e-24</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.869547446768724e-24</v>
+        <v>2.858351258265249e-24</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.831535575639402e-24</v>
+        <v>2.821275330746161e-24</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>2.79129639931498e-24</v>
+        <v>2.782000718143077e-24</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.749109244858005e-24</v>
+        <v>2.740799868036513e-24</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.705253439330904e-24</v>
+        <v>2.697945228006868e-24</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.660008309796223e-24</v>
+        <v>2.653709245634656e-24</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.613653183316507e-24</v>
+        <v>2.608364368500392e-24</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.566467386954182e-24</v>
+        <v>2.562183044184472e-24</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>2.518730247771793e-24</v>
+        <v>2.515437720267411e-24</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>2.47072109283189e-24</v>
+        <v>2.468400844329728e-24</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>2.422719249196893e-24</v>
+        <v>2.421344863951813e-24</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>2.375004043929392e-24</v>
+        <v>2.374542226714227e-24</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>2.32785480409181e-24</v>
+        <v>2.32826538019736e-24</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>2.281550856746693e-24</v>
+        <v>2.28278677198173e-24</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>2.23637152895659e-24</v>
+        <v>2.238378849647855e-24</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>2.192596147783922e-24</v>
+        <v>2.195314060776126e-24</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>2.15050404029124e-24</v>
+        <v>2.153864852947063e-24</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>2.110374533541083e-24</v>
+        <v>2.114303673741176e-24</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>2.072486954595885e-24</v>
+        <v>2.076902970738867e-24</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>2.03712063051819e-24</v>
+        <v>2.041935191520651e-24</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>2.004554888370531e-24</v>
+        <v>2.00967278366703e-24</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.975069055215356e-24</v>
+        <v>1.980388194758422e-24</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.948942458115222e-24</v>
+        <v>1.954353872375355e-24</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.92645442413259e-24</v>
+        <v>1.931842264098258e-24</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.907884275721077e-24</v>
+        <v>1.913125813028689e-24</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.893379055952798e-24</v>
+        <v>1.898348413159757e-24</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.882607596930744e-24</v>
+        <v>1.88718923304487e-24</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.875130701419587e-24</v>
+        <v>1.879222458321959e-24</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.870509172184031e-24</v>
+        <v>1.874022274628994e-24</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.86830381198876e-24</v>
+        <v>1.871162867603916e-24</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.868075423598468e-24</v>
+        <v>1.870218422884683e-24</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.869384809777846e-24</v>
+        <v>1.870763126109247e-24</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.871792773291586e-24</v>
+        <v>1.87237116291556e-24</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.874860116904379e-24</v>
+        <v>1.874616718941574e-24</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.878147643380913e-24</v>
+        <v>1.877073979825241e-24</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.881216155485885e-24</v>
+        <v>1.879317131204515e-24</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.883626455983981e-24</v>
+        <v>1.880920358717347e-24</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.884939347639894e-24</v>
+        <v>1.88145784800169e-24</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.884715633218315e-24</v>
+        <v>1.880503784695496e-24</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.882516115483937e-24</v>
+        <v>1.87763235443672e-24</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.877901597201446e-24</v>
+        <v>1.872417742863309e-24</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.870432881135536e-24</v>
+        <v>1.864434135613216e-24</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.859696700506988e-24</v>
+        <v>1.853281087086244e-24</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.845735039691769e-24</v>
+        <v>1.839003541385198e-24</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.828978271544051e-24</v>
+        <v>1.822026417989088e-24</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.809869220980887e-24</v>
+        <v>1.802786818708642e-24</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.788850712919271e-24</v>
+        <v>1.781721845354533e-24</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.76636557227625e-24</v>
+        <v>1.759268599737484e-24</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.742856623968878e-24</v>
+        <v>1.735864183668227e-24</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.718766692914144e-24</v>
+        <v>1.711945698957427e-24</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.694538604029122e-24</v>
+        <v>1.687950247415835e-24</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.670615182230798e-24</v>
+        <v>1.664314930854114e-24</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.647439252436226e-24</v>
+        <v>1.641476851082996e-24</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.625453639562457e-24</v>
+        <v>1.619873109913208e-24</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.605101168526481e-24</v>
+        <v>1.599940809155417e-24</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.586824664245351e-24</v>
+        <v>1.582117050620354e-24</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.571065053526633e-24</v>
+        <v>1.566836998946687e-24</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.557937431430229e-24</v>
+        <v>1.554203281497223e-24</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.546864342889815e-24</v>
+        <v>1.543611723016462e-24</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.537179739186919e-24</v>
+        <v>1.534367731363641e-24</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.528217571603043e-24</v>
+        <v>1.525776714397971e-24</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.519311791419724e-24</v>
+        <v>1.517144079978697e-24</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.509796349918464e-24</v>
+        <v>1.507775235965032e-24</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.499005198380792e-24</v>
+        <v>1.496975590216212e-24</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.486272288088226e-24</v>
+        <v>1.484050550591464e-24</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.470962153747e-24</v>
+        <v>1.468338666019298e-24</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.453402198699352e-24</v>
+        <v>1.450221877280948e-24</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.435053609344743e-24</v>
+        <v>1.431310724740628e-24</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.417442624740781e-24</v>
+        <v>1.413286241674016e-24</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.402095483945124e-24</v>
+        <v>1.397829461356847e-24</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.390538426015424e-24</v>
+        <v>1.386621417064844e-24</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.384297690009303e-24</v>
+        <v>1.381343142073702e-24</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.384721060170252e-24</v>
+        <v>1.383479598736931e-24</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.390140573080875e-24</v>
+        <v>1.391202303212589e-24</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.396376260639971e-24</v>
+        <v>1.399922795262022e-24</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.399171504670003e-24</v>
+        <v>1.404968398083257e-24</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.394269686993448e-24</v>
+        <v>1.401666434874339e-24</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.378683819679316e-24</v>
+        <v>1.386718483424258e-24</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.35510776813808e-24</v>
+        <v>1.362975107658943e-24</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.327823635908937e-24</v>
+        <v>1.335005988976417e-24</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.301113600565008e-24</v>
+        <v>1.307380888909417e-24</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.278537335272909e-24</v>
+        <v>1.283903967451163e-24</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.260433549132665e-24</v>
+        <v>1.264966291157784e-24</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>1.246243713493818e-24</v>
+        <v>1.25000816891958e-24</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>1.23540926171161e-24</v>
+        <v>1.238469869366197e-24</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>1.227371627141254e-24</v>
+        <v>1.229791661127257e-24</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>1.221572243137992e-24</v>
+        <v>1.22341381283241e-24</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>1.21745254305706e-24</v>
+        <v>1.218776593111298e-24</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>1.214453960253682e-24</v>
+        <v>1.215320270593555e-24</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>1.212017928083098e-24</v>
+        <v>1.212485113908827e-24</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>1.209585879900535e-24</v>
+        <v>1.209711391686749e-24</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>1.206599249061227e-24</v>
+        <v>1.206439372556964e-24</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>1.202499468920407e-24</v>
+        <v>1.20210932514911e-24</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>1.196727972833313e-24</v>
+        <v>1.196161518092834e-24</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>1.188746333911944e-24</v>
+        <v>1.188056368016989e-24</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>1.178502462036967e-24</v>
+        <v>1.177740827358429e-24</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>1.166443807380702e-24</v>
+        <v>1.165661593288707e-24</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>1.153040601170891e-24</v>
+        <v>1.152288153358224e-24</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>1.138763074635279e-24</v>
+        <v>1.138089995117388e-24</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.124081459001575e-24</v>
+        <v>1.123536606116566e-24</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.109465985497524e-24</v>
+        <v>1.109097473906164e-24</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.095386885350871e-24</v>
+        <v>1.095242086036588e-24</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.082314389789323e-24</v>
+        <v>1.082439930058205e-24</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.070718730040627e-24</v>
+        <v>1.071160493521422e-24</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.061070137332524e-24</v>
+        <v>1.061873263976641e-24</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.053838842892728e-24</v>
+        <v>1.055047728974237e-24</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.049495077948986e-24</v>
+        <v>1.051153376064615e-24</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.048410370246115e-24</v>
+        <v>1.050556215824341e-24</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.050397094699815e-24</v>
+        <v>1.053036064290963e-24</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.055070956335227e-24</v>
+        <v>1.058166556276024e-24</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.062047442818684e-24</v>
+        <v>1.06552109872037e-24</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.070942041816509e-24</v>
+        <v>1.074673098564832e-24</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.081370240995018e-24</v>
+        <v>1.085195962750238e-24</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.092947528020555e-24</v>
+        <v>1.096663098217441e-24</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.105289390559438e-24</v>
+        <v>1.108647911907269e-24</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.118011336020222e-24</v>
+        <v>1.120723831201332e-24</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.13429274340774e-24</v>
+        <v>1.136154255984321e-24</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.170818868525094e-24</v>
+        <v>1.172186343038276e-24</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.247299071779401e-24</v>
+        <v>1.24919750902083e-24</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.372150552298959e-24</v>
+        <v>1.375818715493685e-24</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.535805866711292e-24</v>
+        <v>1.541972743154341e-24</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.72709279184985e-24</v>
+        <v>1.735913031169955e-24</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>1.934839104547649e-24</v>
+        <v>1.945893018707242e-24</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>2.147872581637648e-24</v>
+        <v>2.160166144932862e-24</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>2.355006425635598e-24</v>
+        <v>2.366979530569129e-24</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>2.544124585494818e-24</v>
+        <v>2.554177434430972e-24</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>2.701638244348591e-24</v>
+        <v>2.708965623030619e-24</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>2.813828029043476e-24</v>
+        <v>2.818493262446835e-24</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>2.866974566425564e-24</v>
+        <v>2.869909518757921e-24</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>2.849735744151805e-24</v>
+        <v>2.85264320104574e-24</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>2.77384950305774e-24</v>
+        <v>2.778255431981761e-24</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>2.664032434905922e-24</v>
+        <v>2.670753040929028e-24</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>2.545145766462635e-24</v>
+        <v>2.554281553086074e-24</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>2.442050724493826e-24</v>
+        <v>2.4529864936511e-24</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>2.377369304873072e-24</v>
+        <v>2.388832723892672e-24</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>2.348534393269751e-24</v>
+        <v>2.359254814688527e-24</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>2.337118894072097e-24</v>
+        <v>2.346242172586835e-24</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>2.324448405316914e-24</v>
+        <v>2.331543366068562e-24</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>2.291848525040978e-24</v>
+        <v>2.296906963614647e-24</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>2.22091624653319e-24</v>
+        <v>2.224348277143605e-24</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>2.105695550248306e-24</v>
+        <v>2.108116259796859e-24</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>1.95759115422378e-24</v>
+        <v>1.959523032864198e-24</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>1.789296155833153e-24</v>
+        <v>1.791147013675311e-24</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>1.613503652450034e-24</v>
+        <v>1.615566619559951e-24</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>1.442906741447551e-24</v>
+        <v>1.445360267847394e-24</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.29019852019944e-24</v>
+        <v>1.293106375867522e-24</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.167871024162776e-24</v>
+        <v>1.171183867530006e-24</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.081396581675018e-24</v>
+        <v>1.085006720794574e-24</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.027564470788151e-24</v>
+        <v>1.031373600348119e-24</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.002625516106975e-24</v>
+        <v>1.006548917939014e-24</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.002830542236444e-24</v>
+        <v>1.006797085315788e-24</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.024430373781424e-24</v>
+        <v>1.02838251422688e-24</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.06367583534685e-24</v>
+        <v>1.067569616420797e-24</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.116817751537603e-24</v>
+        <v>1.120622803645996e-24</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.180106946958517e-24</v>
+        <v>1.183806487650882e-24</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.249794246214602e-24</v>
+        <v>1.253385080184038e-24</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.322130473910632e-24</v>
+        <v>1.325622992993814e-24</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.393366454651633e-24</v>
+        <v>1.396784637828807e-24</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.459753013042433e-24</v>
+        <v>1.46313442643742e-24</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.517597303729383e-24</v>
+        <v>1.52099254286437e-24</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.564734490238516e-24</v>
+        <v>1.56819205063585e-24</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.600669238038054e-24</v>
+        <v>1.604218984845309e-24</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.624990910842451e-24</v>
+        <v>1.628643240202812e-24</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.637288872366269e-24</v>
+        <v>1.641034711418532e-24</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.637152486324001e-24</v>
+        <v>1.640963293202572e-24</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.624171116430181e-24</v>
+        <v>1.62799888026508e-24</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.597934126399306e-24</v>
+        <v>1.601711367316162e-24</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.558032193402359e-24</v>
+        <v>1.561671974193367e-24</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.50510027081935e-24</v>
+        <v>1.50850547604751e-24</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.442693910730445e-24</v>
+        <v>1.445783198235069e-24</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.374875337671324e-24</v>
+        <v>1.377587640697345e-24</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.305706776177687e-24</v>
+        <v>1.308001303375658e-24</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.239250450785042e-24</v>
+        <v>1.241106686211138e-24</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.17956858602914e-24</v>
+        <v>1.180986289145157e-24</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.130723406445505e-24</v>
+        <v>1.131722612118862e-24</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.096777136569834e-24</v>
+        <v>1.097398155073569e-24</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.081792000937766e-24</v>
+        <v>1.08209541795054e-24</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.089830224084909e-24</v>
+        <v>1.089896900691004e-24</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.124954030546923e-24</v>
+        <v>1.124885103236241e-24</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.19122564485937e-24</v>
+        <v>1.191142525527436e-24</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.292707291558003e-24</v>
+        <v>1.292751667505964e-24</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.432587481984916e-24</v>
+        <v>1.432917680979424e-24</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.603121881096565e-24</v>
+        <v>1.603867387059632e-24</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.789125877984647e-24</v>
+        <v>1.790356376949e-24</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.975272259588596e-24</v>
+        <v>1.976997046424868e-24</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>2.1462338128485e-24</v>
+        <v>2.148401791265229e-24</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>2.286683324703927e-24</v>
+        <v>2.289183007247561e-24</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>2.382959319715457e-24</v>
+        <v>2.385629323957508e-24</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>2.43662777496724e-24</v>
+        <v>2.439352775105341e-24</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>2.457415479555851e-24</v>
+        <v>2.460177629524571e-24</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>2.56998267298037e-24</v>
+        <v>2.573003768652618e-24</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>3.036465358753915e-24</v>
+        <v>3.040304641565498e-24</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>3.640825687649152e-24</v>
+        <v>3.64567429700174e-24</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>4.114300925868955e-24</v>
+        <v>4.119907173911283e-24</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>4.215104513403143e-24</v>
+        <v>4.220820933703316e-24</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>3.985818656409586e-24</v>
+        <v>3.991097966540349e-24</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>3.639500911506004e-24</v>
+        <v>3.644193336118156e-24</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>3.389720687988981e-24</v>
+        <v>3.394074258851137e-24</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>3.315018033498297e-24</v>
+        <v>3.319398602157599e-24</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>3.272690108663233e-24</v>
+        <v>3.277124146859582e-24</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>3.19013120912884e-24</v>
+        <v>3.194477947457599e-24</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>3.072128027914057e-24</v>
+        <v>3.076262527929768e-24</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>2.925891087066448e-24</v>
+        <v>2.929709974862539e-24</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>2.758630908633885e-24</v>
+        <v>2.762052374842673e-24</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>2.577558014664318e-24</v>
+        <v>2.58052181445701e-24</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>2.389882927205196e-24</v>
+        <v>2.392350380291885e-24</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>2.202571773538991e-24</v>
+        <v>2.204525812196045e-24</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>2.019085393414463e-24</v>
+        <v>2.020531251328191e-24</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.840261733501366e-24</v>
+        <v>1.841227461207422e-24</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>1.666875490129566e-24</v>
+        <v>1.667411967442624e-24</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>1.499701359628906e-24</v>
+        <v>1.499882295642665e-24</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>1.33951403832878e-24</v>
+        <v>1.33943597141596e-24</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>1.187088222559172e-24</v>
+        <v>1.186870520371515e-24</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.043198608649503e-24</v>
+        <v>1.042983468117771e-24</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>9.086218280085698e-25</v>
+        <v>9.085741544761327e-25</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>7.846831977826329e-25</v>
+        <v>7.849563337017674e-25</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>6.740084244025559e-25</v>
+        <v>6.746629260894006e-25</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>5.794116150395091e-25</v>
+        <v>5.804034850290626e-25</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>5.037068768646052e-25</v>
+        <v>5.048875639107266e-25</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>4.494892639232557e-25</v>
+        <v>4.506120830967334e-25</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>4.156719615696446e-25</v>
+        <v>4.165000039628592e-25</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>3.981117664978659e-25</v>
+        <v>3.985074771063695e-25</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>3.925728792477235e-25</v>
+        <v>3.925007708159778e-25</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>3.948195003590687e-25</v>
+        <v>3.943461533804462e-25</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>4.006158303717414e-25</v>
+        <v>3.999098930885239e-25</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>4.05726069825575e-25</v>
+        <v>4.050582582289552e-25</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>4.062953390316896e-25</v>
+        <v>4.060208561490673e-25</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>4.023494874819063e-25</v>
+        <v>4.027289148350274e-25</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>3.961804578609327e-25</v>
+        <v>3.972751677380149e-25</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>3.901085902641115e-25</v>
+        <v>3.917794350850186e-25</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>3.864542247867671e-25</v>
+        <v>3.883615371030111e-25</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>3.875257784788595e-25</v>
+        <v>3.891306172366479e-25</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>3.938004716780186e-25</v>
+        <v>3.945560290883322e-25</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>4.019681914569668e-25</v>
+        <v>4.017156661430461e-25</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>4.084187869192144e-25</v>
+        <v>4.074163282804076e-25</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>4.118893671398975e-25</v>
+        <v>4.105331837980083e-25</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>4.12834341776233e-25</v>
+        <v>4.11454659145959e-25</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>4.11747414829639e-25</v>
+        <v>4.10603806329926e-25</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>4.091222903015363e-25</v>
+        <v>4.084036773555777e-25</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>4.054526721933379e-25</v>
+        <v>4.052773242285763e-25</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>4.012322645064675e-25</v>
+        <v>4.016477989545926e-25</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>3.969520943861432e-25</v>
+        <v>3.979358702424039e-25</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>3.929221832646869e-25</v>
+        <v>3.944079130828314e-25</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>3.89159592721761e-25</v>
+        <v>3.910804144375282e-25</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>3.856546762120168e-25</v>
+        <v>3.879470798506202e-25</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>3.823977871901165e-25</v>
+        <v>3.850016148662434e-25</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>3.793792791107204e-25</v>
+        <v>3.822377250285323e-25</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>3.765895054284815e-25</v>
+        <v>3.796491158816144e-25</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>3.740188195980608e-25</v>
+        <v>3.772294929696247e-25</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>3.716575750741185e-25</v>
+        <v>3.749725618366976e-25</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>3.694961253113087e-25</v>
+        <v>3.728720280269615e-25</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>3.675248237642932e-25</v>
+        <v>3.709215970845524e-25</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>3.65734023887727e-25</v>
+        <v>3.691149745535992e-25</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>3.641140791362699e-25</v>
+        <v>3.674458659782364e-25</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>3.626553429645815e-25</v>
+        <v>3.659079769025974e-25</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>3.613481688273173e-25</v>
+        <v>3.644950128708121e-25</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>3.601829101791369e-25</v>
+        <v>3.632006794270142e-25</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>3.591499204746994e-25</v>
+        <v>3.620186821153371e-25</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>3.58239553168661e-25</v>
+        <v>3.609427264799111e-25</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>3.574421617156811e-25</v>
+        <v>3.599665180648698e-25</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.567480995704184e-25</v>
+        <v>3.590837624143463e-25</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.561477201875297e-25</v>
+        <v>3.582881650724713e-25</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.556313770216745e-25</v>
+        <v>3.575734315833788e-25</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.551894235275101e-25</v>
+        <v>3.569332674911998e-25</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.54812213159695e-25</v>
+        <v>3.563613783400676e-25</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>3.544900993728876e-25</v>
+        <v>3.558514696741144e-25</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.542134356217462e-25</v>
+        <v>3.553972470374731e-25</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>3.539725753609285e-25</v>
+        <v>3.549924159742751e-25</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>3.537605581658048e-25</v>
+        <v>3.54632891035919e-25</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>3.535853828475304e-25</v>
+        <v>3.543268889240326e-25</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>3.534602251665485e-25</v>
+        <v>3.540868837507696e-25</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>3.533982658858794e-25</v>
+        <v>3.539253537422937e-25</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.534126857685433e-25</v>
+        <v>3.538547771247688e-25</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.535166655775605e-25</v>
+        <v>3.538876321243584e-25</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.53723386075951e-25</v>
+        <v>3.540363969672266e-25</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.540460280267356e-25</v>
+        <v>3.543135498795375e-25</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.544977721929344e-25</v>
+        <v>3.547315690874548e-25</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.55091799337567e-25</v>
+        <v>3.553029328171416e-25</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.558412902236548e-25</v>
+        <v>3.56040119294763e-25</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.567594256142165e-25</v>
+        <v>3.569556067464813e-25</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.578593862722744e-25</v>
+        <v>3.580618733984623e-25</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.591543529608478e-25</v>
+        <v>3.593713974768687e-25</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>3.606575064429555e-25</v>
+        <v>3.608966572078632e-25</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>3.623820274816205e-25</v>
+        <v>3.626501308176123e-25</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>3.643410968398619e-25</v>
+        <v>3.646442965322785e-25</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>3.665478952806979e-25</v>
+        <v>3.668916325780238e-25</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>3.690156035671525e-25</v>
+        <v>3.694046171810156e-25</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>3.717574024622443e-25</v>
+        <v>3.721957285674162e-25</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>3.747864727289908e-25</v>
+        <v>3.752774449633865e-25</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>3.781159951304176e-25</v>
+        <v>3.786622445950959e-25</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>3.817591504295389e-25</v>
+        <v>3.82362605688702e-25</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>3.857291193893816e-25</v>
+        <v>3.863910064703754e-25</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>3.900390827729628e-25</v>
+        <v>3.907599251662767e-25</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>3.947022213432985e-25</v>
+        <v>3.954818400025656e-25</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>3.997317158634173e-25</v>
+        <v>4.005692292054141e-25</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>4.051407470963356e-25</v>
+        <v>4.060345710009822e-25</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>4.10942495805068e-25</v>
+        <v>4.118903436154281e-25</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>4.171501427526454e-25</v>
+        <v>4.181490252749264e-25</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>4.237768687020829e-25</v>
+        <v>4.248230942056357e-25</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>4.308358544163944e-25</v>
+        <v>4.319250286337133e-25</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>4.383402806586128e-25</v>
+        <v>4.39467306785336e-25</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>4.463033281917447e-25</v>
+        <v>4.474624068866537e-25</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>4.54738177778825e-25</v>
+        <v>4.55922807163845e-25</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>4.636762176890886e-25</v>
+        <v>4.648793495263222e-25</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>4.732348676711777e-25</v>
+        <v>4.744496453080736e-25</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>4.835569328879451e-25</v>
+        <v>4.84776909003685e-25</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>4.947852221816911e-25</v>
+        <v>4.96004358818751e-25</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>5.070625443946768e-25</v>
+        <v>5.08275212958826e-25</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>5.205317083692059e-25</v>
+        <v>5.217326896295077e-25</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>5.353355229475496e-25</v>
+        <v>5.36520007036361e-25</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>5.516167969719742e-25</v>
+        <v>5.527803833849457e-25</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>5.695183392847905e-25</v>
+        <v>5.706570368808669e-25</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>5.891829587282666e-25</v>
+        <v>5.902931857296861e-25</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>6.107534641446635e-25</v>
+        <v>6.118320481369582e-25</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>6.343549357464414e-25</v>
+        <v>6.353990938000804e-25</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>6.597957774409786e-25</v>
+        <v>6.608027610357324e-25</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>6.866113204726625e-25</v>
+        <v>6.875781093128708e-25</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>7.143279482237464e-25</v>
+        <v>7.15251240205462e-25</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>7.424720440763864e-25</v>
+        <v>7.433482552873753e-25</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>7.705699914128389e-25</v>
+        <v>7.713952561325798e-25</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>7.981481736152832e-25</v>
+        <v>7.989183443149684e-25</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>8.247329740659014e-25</v>
+        <v>8.254436214084361e-25</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>8.498507761469466e-25</v>
+        <v>8.504971889869487e-25</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>8.730279632405991e-25</v>
+        <v>8.736051486244002e-25</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>8.937909187290468e-25</v>
+        <v>8.942936018946913e-25</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>9.116660259945324e-25</v>
+        <v>9.120886503717777e-25</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>9.261796684192407e-25</v>
+        <v>9.265163956295572e-25</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>9.368582293853698e-25</v>
+        <v>9.371029392419415e-25</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>9.432280922751433e-25</v>
+        <v>9.433743827828666e-25</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>9.450733408889865e-25</v>
+        <v>9.451153647335961e-25</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>9.433669928303796e-25</v>
+        <v>9.433033166278924e-25</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>9.394247148754753e-25</v>
+        <v>9.392594314028524e-25</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>9.345622057839882e-25</v>
+        <v>9.343049340829515e-25</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>9.30095164315618e-25</v>
+        <v>9.297610496926519e-25</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>9.273392892300797e-25</v>
+        <v>9.269490032564287e-25</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>9.276102792870806e-25</v>
+        <v>9.271900197987522e-25</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>9.32223833246331e-25</v>
+        <v>9.318053243440929e-25</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>9.424943642793297e-25</v>
+        <v>9.421148491249788e-25</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>9.593380426171368e-25</v>
+        <v>9.590380518979081e-25</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>9.827110069245206e-25</v>
+        <v>9.82528979361349e-25</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.012427640900534e-24</v>
+        <v>1.01239912893077e-24</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.048302328244206e-24</v>
+        <v>1.048459998021614e-24</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.090149452654667e-24</v>
+        <v>1.090523084049428e-24</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.13778339783095e-24</v>
+        <v>1.138399884429661e-24</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.19101854747207e-24</v>
+        <v>1.191901896577744e-24</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.249669285277189e-24</v>
+        <v>1.250840617909251e-24</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.313487339571951e-24</v>
+        <v>1.314964186323346e-24</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.381459884079938e-24</v>
+        <v>1.383247592786323e-24</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.452063086968386e-24</v>
+        <v>1.454149079849787e-24</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>1.523763765730262e-24</v>
+        <v>1.526117434304937e-24</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>1.595028737858725e-24</v>
+        <v>1.597601442943168e-24</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.664324820846742e-24</v>
+        <v>1.667049892555679e-24</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.730118832187287e-24</v>
+        <v>1.73291156993368e-24</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.790877589373511e-24</v>
+        <v>1.793635261868553e-24</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.845067909898382e-24</v>
+        <v>1.847669755151503e-24</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.891188145256793e-24</v>
+        <v>1.893498492417954e-24</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.928185571033739e-24</v>
+        <v>1.930098283538269e-24</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.955341686778928e-24</v>
+        <v>1.956813250266854e-24</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.971945958198778e-24</v>
+        <v>1.972996269158297e-24</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.977287850999631e-24</v>
+        <v>1.978000216767108e-24</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.970656830887869e-24</v>
+        <v>1.971177969647836e-24</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.951342593135159e-24</v>
+        <v>1.951882610637364e-24</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.919007303672065e-24</v>
+        <v>1.91980191654189e-24</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.874443031082487e-24</v>
+        <v>1.875638969923803e-24</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.81865529373267e-24</v>
+        <v>1.820288654640956e-24</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.752649610031101e-24</v>
+        <v>1.754645854602137e-24</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>1.677545756378499e-24</v>
+        <v>1.679743296502074e-24</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.594910745647354e-24</v>
+        <v>1.597153260724882e-24</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.506421003217611e-24</v>
+        <v>1.508580024765281e-24</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.413752954468911e-24</v>
+        <v>1.415727866117686e-24</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.318583024781127e-24</v>
+        <v>1.320301062276747e-24</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.222587639534063e-24</v>
+        <v>1.224003890737042e-24</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.127443224107599e-24</v>
+        <v>1.128540628993227e-24</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.034826203881364e-24</v>
+        <v>1.035615554539707e-24</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>9.464130042353208e-25</v>
+        <v>9.469329448712194e-25</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>8.636665729321579e-25</v>
+        <v>8.639794619255256e-25</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>7.868206308809608e-25</v>
+        <v>7.869887140892897e-25</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>7.156698258420118e-25</v>
+        <v>7.157467258335743e-25</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>6.500082575951407e-25</v>
+        <v>6.500389630272229e-25</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>5.896300259203717e-25</v>
+        <v>5.896508915392738e-25</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>5.343292305977097e-25</v>
+        <v>5.343679772387463e-25</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>4.838999714070129e-25</v>
+        <v>4.839756859945126e-25</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>4.381363481282906e-25</v>
+        <v>4.382594836755963e-25</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>3.968324409909781e-25</v>
+        <v>3.970048477348417e-25</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>3.597804346219085e-25</v>
+        <v>3.599983787822583e-25</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>3.267690611787493e-25</v>
+        <v>3.270287230393696e-25</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>2.975866863566713e-25</v>
+        <v>2.978847438590013e-25</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>2.720216758509358e-25</v>
+        <v>2.7235530459407e-25</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>2.498623953567914e-25</v>
+        <v>2.502292685974791e-25</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>2.308972105694282e-25</v>
+        <v>2.312954992220741e-25</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>2.149144871840975e-25</v>
+        <v>2.153428598207615e-25</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>2.017025908960401e-25</v>
+        <v>2.021602137464368e-25</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>1.910448416193415e-25</v>
+        <v>1.915312867853738e-25</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>1.826049204735461e-25</v>
+        <v>1.831179896354115e-25</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>1.75924843083217e-25</v>
+        <v>1.764583543387459e-25</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>1.705411739158436e-25</v>
+        <v>1.710848626210269e-25</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.659904774389378e-25</v>
+        <v>1.665299962079263e-25</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.618093181199927e-25</v>
+        <v>1.623262368250976e-25</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.575342604265141e-25</v>
+        <v>1.580060661982066e-25</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.527018688260078e-25</v>
+        <v>1.531019660529194e-25</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.468487077859668e-25</v>
+        <v>1.47146418114889e-25</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.39786774453311e-25</v>
+        <v>1.399552464584037e-25</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.325177176159456e-25</v>
+        <v>1.325680903227348e-25</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.26364305372343e-25</v>
+        <v>1.263549299213534e-25</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.226252068971532e-25</v>
+        <v>1.226603750508852e-25</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.210432535549571e-25</v>
+        <v>1.211911172488925e-25</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.192687601955184e-25</v>
+        <v>1.194535055879413e-25</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.171897932910586e-25</v>
+        <v>1.1732612589489e-25</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.156630651807202e-25</v>
+        <v>1.157137849924056e-25</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.155476303942638e-25</v>
+        <v>1.155237711107268e-25</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.176601239906482e-25</v>
+        <v>1.176193098598835e-25</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.218371340027068e-25</v>
+        <v>1.2184561698126e-25</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.269327511902867e-25</v>
+        <v>1.270273531886198e-25</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.317581567920873e-25</v>
+        <v>1.319446075427111e-25</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.35124532046824e-25</v>
+        <v>1.353774691042985e-25</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.358436945474601e-25</v>
+        <v>1.361066787744907e-25</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.333888452386428e-25</v>
+        <v>1.335904560019076e-25</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.291452784796306e-25</v>
+        <v>1.292456456918553e-25</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.248418122983099e-25</v>
+        <v>1.248409762911067e-25</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.221307122902062e-25</v>
+        <v>1.220670369972265e-25</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.212279650507177e-25</v>
+        <v>1.211483661030353e-25</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.21073282499654e-25</v>
+        <v>1.210067719702728e-25</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.205619649957474e-25</v>
+        <v>1.205187308147008e-25</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.188093085188303e-25</v>
+        <v>1.187845038115453e-25</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.158618907818649e-25</v>
+        <v>1.158516748320736e-25</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.120126736358889e-25</v>
+        <v>1.120184557558565e-25</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.075546205002993e-25</v>
+        <v>1.075830600578387e-25</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.027806947944958e-25</v>
+        <v>1.028437012129671e-25</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>9.798384626590756e-26</v>
+        <v>9.809857784090713e-26</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>9.340800329408688e-26</v>
+        <v>9.359262438233168e-26</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>8.913792819605102e-26</v>
+        <v>8.939783335459662e-26</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>8.522613584587442e-26</v>
+        <v>8.555115880821641e-26</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>8.172514111764317e-26</v>
+        <v>8.208955479371709e-26</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>7.868745888544191e-26</v>
+        <v>7.904997536162331e-26</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>7.616560402334726e-26</v>
+        <v>7.646937456245161e-26</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>7.421208860800653e-26</v>
+        <v>7.438470461634984e-26</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>7.274898768830114e-26</v>
+        <v>7.274755822370401e-26</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>7.13961509020355e-26</v>
+        <v>7.130647224922238e-26</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>7.010994325139054e-26</v>
+        <v>7.001687695732016e-26</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>6.891552593200954e-26</v>
+        <v>6.887717002860848e-26</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>6.783806013953271e-26</v>
+        <v>6.788574914369556e-26</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.690270706960433e-26</v>
+        <v>6.704101198319344e-26</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.612799323633943e-26</v>
+        <v>6.633879540333558e-26</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.550098876581828e-26</v>
+        <v>6.576279486593936e-26</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>6.499945064767532e-26</v>
+        <v>6.529311119052774e-26</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>6.460113444188626e-26</v>
+        <v>6.490984464480972e-26</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>6.428379570842825e-26</v>
+        <v>6.459309549649565e-26</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>6.402519000727821e-26</v>
+        <v>6.432296401329565e-26</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>6.380307289841227e-26</v>
+        <v>6.407955046291907e-26</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>6.359519994180737e-26</v>
+        <v>6.384295511307609e-26</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>6.33793266974404e-26</v>
+        <v>6.359327823147679e-26</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>6.313320872528759e-26</v>
+        <v>6.331062008583059e-26</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>6.283460158532612e-26</v>
+        <v>6.297508094384794e-26</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>6.246130714175864e-26</v>
+        <v>6.256680364629597e-26</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>6.200002514924336e-26</v>
+        <v>6.207411193735839e-26</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>6.145687452346155e-26</v>
+        <v>6.150318393710186e-26</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>6.084053586561067e-26</v>
+        <v>6.086255303192206e-26</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>6.015968977688965e-26</v>
+        <v>6.016075260821628e-26</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>5.942301685849771e-26</v>
+        <v>5.940631605238202e-26</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>5.863919771163198e-26</v>
+        <v>5.860777675081464e-26</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>5.781691293749159e-26</v>
+        <v>5.77736680899116e-26</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>5.696484313727581e-26</v>
+        <v>5.691252345607047e-26</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>5.60916689121816e-26</v>
+        <v>5.603287623568646e-26</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>5.520607086340901e-26</v>
+        <v>5.514325981515795e-26</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>5.431672959215491e-26</v>
+        <v>5.425220758088008e-26</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>5.34323256996186e-26</v>
+        <v>5.336825291925041e-26</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>5.256153978699934e-26</v>
+        <v>5.249992921666652e-26</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>5.171305245549403e-26</v>
+        <v>5.165576985952362e-26</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>5.089554430630198e-26</v>
+        <v>5.084430823421924e-26</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>5.011769594062233e-26</v>
+        <v>5.007407772715087e-26</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>4.93881879596522e-26</v>
+        <v>4.935361172471389e-26</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>4.871570096459076e-26</v>
+        <v>4.869144361330576e-26</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>4.810787720998643e-26</v>
+        <v>4.809501341935158e-26</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>4.756756966075008e-26</v>
+        <v>4.756671813515871e-26</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>4.709625137255883e-26</v>
+        <v>4.710750173392889e-26</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>4.66953952729593e-26</v>
+        <v>4.671830805394491e-26</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>4.636647428949935e-26</v>
+        <v>4.640008093349078e-26</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>4.611096134972643e-26</v>
+        <v>4.615376421085008e-26</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>4.593032938118809e-26</v>
+        <v>4.598030172430652e-26</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>4.582605131143145e-26</v>
+        <v>4.588063731214339e-26</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>4.579960006800411e-26</v>
+        <v>4.58557148126444e-26</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>4.585244857845347e-26</v>
+        <v>4.590647806409313e-26</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>4.598606977032702e-26</v>
+        <v>4.603387090477323e-26</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>4.620193657117196e-26</v>
+        <v>4.623883717296802e-26</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>4.65015219085361e-26</v>
+        <v>4.652232070696149e-26</v>
       </c>
     </row>
   </sheetData>
